--- a/financial_tracker.xlsx
+++ b/financial_tracker.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\finance\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E4E069-B239-484E-B5AD-9746C0A47E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="الحسابات" sheetId="1" r:id="rId1"/>
     <sheet name="المعاملات" sheetId="2" r:id="rId2"/>
     <sheet name="التحويلات" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="172">
   <si>
     <t>اسم الحساب</t>
   </si>
@@ -33,9 +27,36 @@
     <t>الرصيد</t>
   </si>
   <si>
+    <t>مستحقات من أرينا</t>
+  </si>
+  <si>
+    <t>💳 ماستر</t>
+  </si>
+  <si>
+    <t>💳 معلقات ماستر</t>
+  </si>
+  <si>
+    <t>حد 💳 ماستر</t>
+  </si>
+  <si>
     <t>🏛 مطلوبات</t>
   </si>
   <si>
+    <t xml:space="preserve">🏛 راجحي </t>
+  </si>
+  <si>
+    <t>🏛 أهلي 121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">🏛 إس تي سي </t>
+  </si>
+  <si>
+    <t>🏛 زراعات</t>
+  </si>
+  <si>
+    <t>🏛 أهلي 136</t>
+  </si>
+  <si>
     <t>📃  مستحقة الدفع</t>
   </si>
   <si>
@@ -57,15 +78,6 @@
     <t>✈ تعويض تذكرة</t>
   </si>
   <si>
-    <t>💳 ماستر</t>
-  </si>
-  <si>
-    <t>💳 معلقات ماستر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">🏛 راجحي </t>
-  </si>
-  <si>
     <t>👤 النجار أبو تامر</t>
   </si>
   <si>
@@ -75,43 +87,34 @@
     <t>👤 جاري مخلص شما</t>
   </si>
   <si>
+    <t>👤 فيصل حاكمي</t>
+  </si>
+  <si>
+    <t>👤 العم أبو عمر</t>
+  </si>
+  <si>
+    <t>👤 ربوع</t>
+  </si>
+  <si>
+    <t>👤 عمي ابو فيصل</t>
+  </si>
+  <si>
+    <t>👤 جاري ابو محمد</t>
+  </si>
+  <si>
     <t>💵 جيب</t>
   </si>
   <si>
-    <t>🏛 أهلي 121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">🏛 إس تي سي </t>
-  </si>
-  <si>
-    <t>👤 فيصل حاكمي</t>
-  </si>
-  <si>
-    <t>👤 العم أبو عمر</t>
-  </si>
-  <si>
-    <t>👤 ربوع</t>
-  </si>
-  <si>
-    <t>🏛 زراعات</t>
-  </si>
-  <si>
-    <t>👤 عمي ابو فيصل</t>
-  </si>
-  <si>
-    <t>👤 جاري ابو محمد</t>
-  </si>
-  <si>
     <t>💵 مدخرات</t>
   </si>
   <si>
-    <t>🏛 أهلي 136</t>
-  </si>
-  <si>
-    <t>حد 💳 ماستر</t>
-  </si>
-  <si>
-    <t>مستحقات من أرينا</t>
+    <t>بنك الرياض</t>
+  </si>
+  <si>
+    <t>أشخاص</t>
+  </si>
+  <si>
+    <t>بطاقة ائتمان</t>
   </si>
   <si>
     <t>بنك</t>
@@ -120,15 +123,9 @@
     <t>دين</t>
   </si>
   <si>
-    <t>بطاقة ائتمان</t>
-  </si>
-  <si>
     <t>نقد</t>
   </si>
   <si>
-    <t>أشخاص</t>
-  </si>
-  <si>
     <t>التاريخ</t>
   </si>
   <si>
@@ -241,6 +238,12 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-01</t>
+  </si>
+  <si>
+    <t>2025-10-02</t>
   </si>
   <si>
     <t>مصروف</t>
@@ -520,6 +523,12 @@
   </si>
   <si>
     <t>AlAmdeh D</t>
+  </si>
+  <si>
+    <t>Samaria G</t>
+  </si>
+  <si>
+    <t>00:47</t>
   </si>
   <si>
     <t>من حساب</t>
@@ -531,12 +540,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -544,7 +553,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -595,21 +604,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -647,7 +648,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -681,7 +682,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -716,10 +716,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -892,19 +891,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -915,42 +909,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
       </c>
       <c r="C3">
-        <v>9702.2300000000014</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9619.230000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
       </c>
       <c r="C4">
-        <v>-650.79000000000303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-650.790000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -959,2760 +953,2905 @@
         <v>-15000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>2132.04</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>100.73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9">
-        <v>167.9499999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>164.6999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>3090</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C11">
-        <v>532825.05000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>532825.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>-150000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C13">
         <v>-37670</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C14">
         <v>-17062.44631039798</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>-2000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>-2449</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>-2099</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>-1125</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>-500</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>-500</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>1875</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C23">
-        <v>833.57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>833.5700000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C24">
         <v>2250.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>24375</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C26">
         <v>31207.04902108329</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>1365.5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>471000</v>
       </c>
     </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C28">
-    <sortCondition ref="B2:B28"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F135"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F142"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C2">
         <v>2000</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C3">
         <v>2000</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C4">
         <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C5">
-        <v>17.399999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C6">
         <v>294.89</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C7">
         <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C8">
         <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C9">
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C10">
         <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C11">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C12">
         <v>7.72</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C13">
         <v>177.56</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C16">
         <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C17">
         <v>32.11</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C18">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C19">
         <v>0.5</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C20">
         <v>50.12</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C21">
-        <v>86.96</v>
+        <v>86.95999999999999</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C22">
-        <v>90.76</v>
+        <v>90.76000000000001</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C23">
         <v>73.5</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C24">
         <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C25">
         <v>5.28</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C26">
         <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C27">
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C28">
         <v>135</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C29">
         <v>41.25</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C30">
         <v>4.05</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C31">
         <v>1.17</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F31" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C32">
         <v>26.08</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C33">
-        <v>158.66999999999999</v>
+        <v>158.67</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C34">
-        <v>158.66999999999999</v>
+        <v>158.67</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C35">
-        <v>158.66999999999999</v>
+        <v>158.67</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C36">
         <v>7000</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C37">
         <v>0.39</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C38">
         <v>0.39</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C39">
         <v>0.39</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C40">
         <v>67</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C41">
         <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C42">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C43">
         <v>14.95</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C44">
         <v>335.16</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C45">
         <v>35.54</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C46">
         <v>43.64</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C47">
         <v>34</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C48">
         <v>2425</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C49">
         <v>191.12</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C50">
         <v>5.9</v>
       </c>
       <c r="D50" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C51">
         <v>2.1</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C52">
         <v>15.35</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C54">
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F54" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55">
+        <v>16.76</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
         <v>47</v>
       </c>
-      <c r="B55" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55">
-        <v>16.760000000000002</v>
-      </c>
-      <c r="D55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>46</v>
-      </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C56">
         <v>27.4</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F56" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C57">
         <v>702</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C58">
         <v>1.25</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C59">
         <v>100</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E59" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C60">
         <v>100</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F60" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C61">
         <v>55.11</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F61" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C62">
         <v>15.33</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F62" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C63">
         <v>25.3</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C64">
         <v>66.5</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C65">
         <v>21.4</v>
       </c>
       <c r="D65" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C66">
         <v>108</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F66" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C67">
         <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E67" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C68">
         <v>500</v>
       </c>
       <c r="D68" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E68" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C69">
         <v>500</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C70">
         <v>100</v>
       </c>
       <c r="D70" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E70" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C71">
         <v>25.3</v>
       </c>
       <c r="D71" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E71" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F71" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F72" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C73">
         <v>57.5</v>
       </c>
       <c r="D73" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F73" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C74">
         <v>23.95</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F74" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C75">
         <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F75" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B76" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C76">
         <v>26.95</v>
       </c>
       <c r="D76" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E76" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F76" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B77" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C77">
-        <v>40.119999999999997</v>
+        <v>40.12</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B78" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C78">
         <v>6.9</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F78" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B79" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C79">
-        <v>285.20999999999998</v>
+        <v>285.21</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E79" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C80">
-        <v>79.349999999999994</v>
+        <v>79.34999999999999</v>
       </c>
       <c r="D80" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F80" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B81" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C81">
         <v>37</v>
       </c>
       <c r="D81" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E81" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F81" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B82" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C82">
-        <v>76.099999999999994</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="D82" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E82" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B83" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C83">
         <v>13.43</v>
       </c>
       <c r="D83" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E83" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B84" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C84">
         <v>75.7</v>
       </c>
       <c r="D84" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E84" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F84" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B85" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C85">
         <v>390</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E85" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B86" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C86">
         <v>98</v>
       </c>
       <c r="D86" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E86" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F86" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B87" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C87">
         <v>5500</v>
       </c>
       <c r="D87" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B88" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C88">
         <v>116.26</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E88" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B89" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C89">
-        <v>8.9499999999999993</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="D89" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F89" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B90" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C90">
         <v>43.08</v>
       </c>
       <c r="D90" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F90" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B91" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C91">
         <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E91" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F91" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B92" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C92">
         <v>25.15</v>
       </c>
       <c r="D92" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E92" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B93" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C93">
         <v>50</v>
       </c>
       <c r="D93" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E93" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F93" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B94" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E94" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B95" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C95">
         <v>1000</v>
       </c>
       <c r="D95" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E95" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B96" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C96">
         <v>17.45</v>
       </c>
       <c r="D96" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E96" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F96" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B97" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C97">
         <v>59.68</v>
       </c>
       <c r="D97" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E97" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F97" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B98" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C98">
         <v>36</v>
       </c>
       <c r="D98" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E98" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F98" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B99" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C99">
         <v>505.23</v>
       </c>
       <c r="D99" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F99" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B100" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C100">
         <v>5</v>
       </c>
       <c r="D100" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E100" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F100" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B101" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C101">
         <v>3.65</v>
       </c>
       <c r="D101" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E101" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F101" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B102" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E102" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F102" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B103" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C103">
-        <v>88.35</v>
+        <v>88.34999999999999</v>
       </c>
       <c r="D103" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E103" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F103" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B104" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C104">
         <v>70.53</v>
       </c>
       <c r="D104" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F104" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B105" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C105">
         <v>5.8</v>
       </c>
       <c r="D105" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E105" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B106" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C106">
         <v>5.8</v>
       </c>
       <c r="D106" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E106" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B107" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C107">
         <v>5.8</v>
       </c>
       <c r="D107" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E107" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B108" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C108">
-        <v>258.16000000000003</v>
+        <v>258.16</v>
       </c>
       <c r="D108" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E108" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F108" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B109" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C109">
         <v>19.55</v>
       </c>
       <c r="D109" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E109" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F109" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B110" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C110">
         <v>53.9</v>
       </c>
       <c r="D110" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E110" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F110" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B111" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C111">
         <v>2</v>
       </c>
       <c r="D111" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E111" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F111" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B112" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C112">
         <v>73.52</v>
       </c>
       <c r="D112" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E112" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F112" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B113" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C113">
         <v>59</v>
       </c>
       <c r="D113" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E113" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F113" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B114" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C114">
         <v>250</v>
       </c>
       <c r="D114" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E114" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F114" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B115" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C115">
         <v>47</v>
       </c>
       <c r="D115" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E115" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F115" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B116" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C116">
         <v>3.45</v>
       </c>
       <c r="D116" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E116" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F116" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B117" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C117">
         <v>68.5</v>
       </c>
       <c r="D117" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E117" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F117" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B118" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C118">
         <v>18.25</v>
       </c>
       <c r="D118" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E118" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F118" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B119" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C119">
         <v>8.23</v>
       </c>
       <c r="D119" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F119" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B120" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C120">
         <v>51.87</v>
       </c>
       <c r="D120" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F120" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B121" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C121">
         <v>30</v>
       </c>
       <c r="D121" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E121" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F121" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B122" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C122">
         <v>3.11</v>
       </c>
       <c r="D122" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E122" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F122" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B123" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C123">
         <v>110</v>
       </c>
       <c r="D123" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E123" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F123" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B124" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C124">
         <v>21.66</v>
       </c>
       <c r="D124" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E124" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F124" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B125" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C125">
         <v>10.5</v>
       </c>
       <c r="D125" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E125" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F125" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B126" t="s">
+        <v>76</v>
+      </c>
+      <c r="C126">
+        <v>33.8</v>
+      </c>
+      <c r="D126" t="s">
+        <v>4</v>
+      </c>
+      <c r="E126" t="s">
+        <v>101</v>
+      </c>
+      <c r="F126" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
         <v>73</v>
       </c>
-      <c r="C126">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="D126" t="s">
-        <v>11</v>
-      </c>
-      <c r="E126" t="s">
-        <v>98</v>
-      </c>
-      <c r="F126" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>72</v>
-      </c>
       <c r="B127" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C127">
         <v>192.8</v>
       </c>
       <c r="D127" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E127" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F127" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B128" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C128">
         <v>25.3</v>
       </c>
       <c r="D128" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E128" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F128" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B129" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
       <c r="D129" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E129" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F129" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B130" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C130">
         <v>31.64</v>
       </c>
       <c r="D130" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E130" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F130" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B131" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C131">
         <v>23.55</v>
       </c>
       <c r="D131" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E131" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F131" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B132" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C132">
         <v>23.95</v>
       </c>
       <c r="D132" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E132" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F132" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B133" t="s">
+        <v>76</v>
+      </c>
+      <c r="C133">
+        <v>835.5700000000001</v>
+      </c>
+      <c r="D133" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
         <v>73</v>
       </c>
-      <c r="C133">
-        <v>835.57</v>
-      </c>
-      <c r="D133" t="s">
-        <v>19</v>
-      </c>
-      <c r="E133" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>72</v>
-      </c>
       <c r="B134" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C134">
-        <v>835.57</v>
+        <v>835.5700000000001</v>
       </c>
       <c r="D134" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E134" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B135" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C135">
         <v>3</v>
       </c>
       <c r="D135" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E135" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F135" t="s">
-        <v>138</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>74</v>
+      </c>
+      <c r="B136" t="s">
+        <v>76</v>
+      </c>
+      <c r="C136">
+        <v>3.25</v>
+      </c>
+      <c r="D136" t="s">
+        <v>10</v>
+      </c>
+      <c r="E136" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>74</v>
+      </c>
+      <c r="B137" t="s">
+        <v>76</v>
+      </c>
+      <c r="C137">
+        <v>6.9</v>
+      </c>
+      <c r="D137" t="s">
+        <v>4</v>
+      </c>
+      <c r="E137" t="s">
+        <v>101</v>
+      </c>
+      <c r="F137" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>74</v>
+      </c>
+      <c r="B138" t="s">
+        <v>76</v>
+      </c>
+      <c r="C138">
+        <v>33.85</v>
+      </c>
+      <c r="D138" t="s">
+        <v>4</v>
+      </c>
+      <c r="E138" t="s">
+        <v>101</v>
+      </c>
+      <c r="F138" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>74</v>
+      </c>
+      <c r="B139" t="s">
+        <v>76</v>
+      </c>
+      <c r="C139">
+        <v>12.45</v>
+      </c>
+      <c r="D139" t="s">
+        <v>4</v>
+      </c>
+      <c r="E139" t="s">
+        <v>101</v>
+      </c>
+      <c r="F139" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>74</v>
+      </c>
+      <c r="B140" t="s">
+        <v>76</v>
+      </c>
+      <c r="C140">
+        <v>2.3</v>
+      </c>
+      <c r="D140" t="s">
+        <v>4</v>
+      </c>
+      <c r="E140" t="s">
+        <v>101</v>
+      </c>
+      <c r="F140" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>75</v>
+      </c>
+      <c r="B141" t="s">
+        <v>76</v>
+      </c>
+      <c r="C141">
+        <v>23</v>
+      </c>
+      <c r="D141" t="s">
+        <v>4</v>
+      </c>
+      <c r="E141" t="s">
+        <v>101</v>
+      </c>
+      <c r="F141" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>75</v>
+      </c>
+      <c r="B142" t="s">
+        <v>76</v>
+      </c>
+      <c r="C142">
+        <v>4.5</v>
+      </c>
+      <c r="D142" t="s">
+        <v>4</v>
+      </c>
+      <c r="E142" t="s">
+        <v>101</v>
+      </c>
+      <c r="F142" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3721,246 +3860,246 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>1498.79</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>501.21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>501.21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>690</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>3278</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>-20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>3950.25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D16">
         <v>402.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>1000</v>

--- a/financial_tracker.xlsx
+++ b/financial_tracker.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="172">
   <si>
     <t>اسم الحساب</t>
   </si>
@@ -928,7 +928,7 @@
         <v>32</v>
       </c>
       <c r="C3">
-        <v>9619.230000000001</v>
+        <v>9605.530000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1224,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F142"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3851,6 +3851,26 @@
         <v>101</v>
       </c>
       <c r="F142" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>75</v>
+      </c>
+      <c r="B143" t="s">
+        <v>76</v>
+      </c>
+      <c r="C143">
+        <v>13.7</v>
+      </c>
+      <c r="D143" t="s">
+        <v>4</v>
+      </c>
+      <c r="E143" t="s">
+        <v>101</v>
+      </c>
+      <c r="F143" t="s">
         <v>129</v>
       </c>
     </row>
